--- a/SistemaRecomendador/Dataset-RecommenderSystem.xlsx
+++ b/SistemaRecomendador/Dataset-RecommenderSystem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Archivos de programa\Xampp\htdocs\ProyectoDeGradoRepositorio\SistemaRecomendador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F2440E-7D02-46F7-876A-5EE2758DB3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C0AD7E-F3AA-41C5-A00C-2162F68CB605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1800,10 +1800,10 @@
   <dimension ref="A1:F138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/SistemaRecomendador/Dataset-RecommenderSystem.xlsx
+++ b/SistemaRecomendador/Dataset-RecommenderSystem.xlsx
@@ -1,38 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Archivos de programa\Xampp\htdocs\ProyectoDeGradoRepositorio\SistemaRecomendador\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C0AD7E-F3AA-41C5-A00C-2162F68CB605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="550">
   <si>
     <t>Tema</t>
   </si>
@@ -97,6 +76,9 @@
     <t>Problemas, soluciones, comprensión y especificación del problema</t>
   </si>
   <si>
+    <t>Usuario, conocimiento, programación, programa, dominio.</t>
+  </si>
+  <si>
     <t>Se explica que es un problema, que es la solución a un problema y en que consiste especificar un problema. Igualmente se exponen los elementos que componen la especificación de un problema, al igual que el proceso a realizar.</t>
   </si>
   <si>
@@ -106,7 +88,7 @@
     <t>Elementos de un programa</t>
   </si>
   <si>
-    <t>Funcionalidad, interfaz, algoritmo, validación, botones</t>
+    <t>Funcionalidad, interfaz, algoritmo, validación, botones.</t>
   </si>
   <si>
     <t>Se enlistan, definen y caracterizan los elementos que componen un programa de computadora, al igual que se exponen las caracteristicas de un programa propiamente.</t>
@@ -253,6 +235,9 @@
     <t>Qué y cuales son las asociaciones</t>
   </si>
   <si>
+    <t>Relación, objetos, atributos, métodos, programación.</t>
+  </si>
+  <si>
     <t>Se define el concepto de asociación, partiendo del hecho de que este representa y modela las relaciones conceptuales entre las diferentes clases, y consecuentemente la interacción practica de las clases en un programa particularmente.</t>
   </si>
   <si>
@@ -310,6 +295,9 @@
     <t>Convenciones</t>
   </si>
   <si>
+    <t>Código, programa, software, archivos, secciones.</t>
+  </si>
+  <si>
     <t>Se enlistan las convenciones y estandares utilizados en los diferentes diagramas UML en general y en el diagrama de clases en particular.</t>
   </si>
   <si>
@@ -319,6 +307,9 @@
     <t>Figuras</t>
   </si>
   <si>
+    <t>Diseño, paneles, botones, herramientas, programa.</t>
+  </si>
+  <si>
     <t>Se enlistan las diferentes figuras (elementos gráficos) utilizadas para la construcción de un diagrama de clases. Especialmente se hace hincapíe en los elementos básicos de los diagramas de clases como lo son: las clases, las relaciones y los comentarios.</t>
   </si>
   <si>
@@ -328,6 +319,9 @@
     <t>Significado de las convenciones</t>
   </si>
   <si>
+    <t>Lenguaje, híbridas, nomenclatura, conjunto, código.</t>
+  </si>
+  <si>
     <t>Se establece el significado e importancia de cada una de las convenciones utilizadas al momento de construir diagramas bajo el lenguaje UML.</t>
   </si>
   <si>
@@ -337,6 +331,9 @@
     <t>Significado de las figuras</t>
   </si>
   <si>
+    <t>Simbolo, proceso, decisión, ejecución, flujo.</t>
+  </si>
+  <si>
     <t>Se establece el significado de cada uno de los elementos gráficos utilizados en la construcción de los diagramas de clases.</t>
   </si>
   <si>
@@ -382,6 +379,9 @@
     <t>Tipos de datos compuestos y objetos creados (POO)</t>
   </si>
   <si>
+    <t>Primitivos, estructuras, implementación, lenguje, recursivo.</t>
+  </si>
+  <si>
     <t>Se realiza una clasificación secundaria o derivada, para agrupar aquellos datos que se componen de los tipos de datos fundamentales de los lenguajes de programación, que pueden esta definidos por el mismo lenguaje o por el programador.</t>
   </si>
   <si>
@@ -391,6 +391,9 @@
     <t>Cómo escoger un tipo de dato</t>
   </si>
   <si>
+    <t>Valores, declarar, contadores, transferir, variable.</t>
+  </si>
+  <si>
     <t>Se realiza una brevé explicación sobre los aspectos a tener en cuenta para la correcta selección de un tipo de dato en función de la intención que se tenga.</t>
   </si>
   <si>
@@ -400,6 +403,9 @@
     <t>Constantes y variables</t>
   </si>
   <si>
+    <t>Nombre, valor, tipos, dato, elemento.</t>
+  </si>
+  <si>
     <t>Se definen los conceptos de variable y de constante, siendo estos elementos primordiales en todo el campo de la programación. Igualmente se establecen sus semejanzas y diferencias.</t>
   </si>
   <si>
@@ -469,6 +475,9 @@
     <t>Operadores aritméticos</t>
   </si>
   <si>
+    <t>Suma, resta, producto, división, operación.</t>
+  </si>
+  <si>
     <t>Se presentan los diferentes operadores aritméticos, y se ejemplifica su uso.</t>
   </si>
   <si>
@@ -646,6 +655,9 @@
     <t>Switch</t>
   </si>
   <si>
+    <t>Sentencia, nomenclaura, expresión, variable, valores.</t>
+  </si>
+  <si>
     <t>Se plantea el switch como una estructura de selección mas compleja, pero a su vez eficiente según sea el caso. Usar switch ayuda a simplificar el código y evita confusiones, ya que organiza en varias ramas el código que va a ser ejecutado. Esta estructura se utiliza para cuando tenemos decisiones múltiples, es lo equivalente hacer múltiples if else anidados.</t>
   </si>
   <si>
@@ -727,6 +739,9 @@
     <t>Tamaño variable</t>
   </si>
   <si>
+    <t>Arreglo, datos, estructura, sintaxis, dimensión.</t>
+  </si>
+  <si>
     <t>Se define el concepto de "estructura contenedora de tamaño variable", que, en el lenguaje de programación Java, toma el nombre puntual de ArrayList.</t>
   </si>
   <si>
@@ -919,6 +934,9 @@
     <t>Para que sirve la documentación</t>
   </si>
   <si>
+    <t>Información, explicación, identificación, elemento, lenguaje.</t>
+  </si>
+  <si>
     <t>Se presenta la utilidad e importancia de una correcta y completa documentación del código durante el proceso de desarrollo de software.</t>
   </si>
   <si>
@@ -928,6 +946,9 @@
     <t>Comentarios</t>
   </si>
   <si>
+    <t>Construcción, programación, lenguaje, código, compilador.</t>
+  </si>
+  <si>
     <t>Se exponen los comentarios como un elemento particular pero principal de la documentación de código en todo lenguaje de programación. En específico se pueden entender los comentarios como aquellas líneas de código fuente que el compilador ignora.</t>
   </si>
   <si>
@@ -949,6 +970,9 @@
     <t>Importancia de la documentación</t>
   </si>
   <si>
+    <t>Información, software, adaptación, mantenimiento, desarrolladores.</t>
+  </si>
+  <si>
     <t>Se define el proceso con el se conoce toda la parte documental y procesos internos que se encuentran en el codigo.</t>
   </si>
   <si>
@@ -958,6 +982,9 @@
     <t>Interacción usuario - computador</t>
   </si>
   <si>
+    <t>Diseño, implementación, sistemas informáticos, usuario, máquina.</t>
+  </si>
+  <si>
     <t>Se presenta el la utilidad y el manejo que posee el usuario al iteractuar con un equipo pc.</t>
   </si>
   <si>
@@ -1051,6 +1078,9 @@
     <t>Como estructurar un programa mediante MVC</t>
   </si>
   <si>
+    <t>Patrón, componentes, objetos, arquitectura, organizar.</t>
+  </si>
+  <si>
     <t>Se exponen los diferentes métodos y procedimientos para el desarrollo de un aplicativo mediante la arquitectura MVC, al igual que se expone lo que se puede y lo que no se puede hacer al momento de utilizar este estilo arquitectural (especialmente por factores como buenas practicas de desarrollo o el simple hecho de que no se este utilizando un estilo arquitectural diferente).</t>
   </si>
   <si>
@@ -1060,6 +1090,9 @@
     <t>POO y MVC</t>
   </si>
   <si>
+    <t>Objeto, desarrollo, reutilizar, diseñar, estructura.</t>
+  </si>
+  <si>
     <t>Se presenta la relación que existe entre el paradigma POO y el estilo arquitectural MVC, especialmente puesto que las caracteristicas y la lógica misma de la POO permite cumplir con la idea y filosofía del MVC.</t>
   </si>
   <si>
@@ -1084,6 +1117,9 @@
     <t>Métodos de identificación de requerimientos</t>
   </si>
   <si>
+    <t>Declaraciones, servicios, entradas, sistemas, problemas.</t>
+  </si>
+  <si>
     <t>Se exponen los diferentes métodos, procedimientos y "tips" para poder identificar y extraer requerimientos ya sea de un enunciado textual o de la conversación con un beneficiario/cliente. Igualmente se establecen las herramientas ingenieriles para una correcta ingeniería de requerimientos.</t>
   </si>
   <si>
@@ -1105,6 +1141,9 @@
     <t>Para que sirven los diagramas</t>
   </si>
   <si>
+    <t>Algoritmo, proceso, representar, visual, estructurada.</t>
+  </si>
+  <si>
     <t>Se expone el uso e importancia de los diagramas UML dentro del proceso de desarrollo de software como aquel lenguaje y herramienta que permite diseñar el artefacto desde una perspectiva lógica, conceptual y documental, al igual que estandarizar la comprensión de este desde diferentes enfoques.</t>
   </si>
   <si>
@@ -1138,6 +1177,9 @@
     <t>Relación: Requerimientos - Diagramas - Código</t>
   </si>
   <si>
+    <t>Interacción, colaboración, flujo de datos, requisitos, software.</t>
+  </si>
+  <si>
     <t>Se define relación entre: Requerimientos, diagramas, código como el flujo lógico entre identificar, extraer y analizar los requerimientos, para luego construir una serie de diagramas, y que finalmente serán traducidos a un artefacto final mediante un proceso de construcción, el cual incluye la codficación.</t>
   </si>
   <si>
@@ -1159,6 +1201,9 @@
     <t>Estándares en la documentación</t>
   </si>
   <si>
+    <t>Visión general, desarrollo, diagramas, circuito, señales lógicas.</t>
+  </si>
+  <si>
     <t>Se plantean los estandares de documentación de código fuente en terminos de orden, convenciones, idiomas, buenas practicas y presentación.</t>
   </si>
   <si>
@@ -1168,6 +1213,9 @@
     <t>Buenas prácticas de documentación</t>
   </si>
   <si>
+    <t>Técnica, lenguaje, experiencia, organización, tecnología.</t>
+  </si>
+  <si>
     <t>Se definen las buenas practicas en la documentación de código a la correcta aplicación de estandares y convenciones al momento de la generación de comentarios o de la utilización de herramientas para documentación tales como JavaDOC o PHPDOC. Igualmente se refiere a la forma en la que se redacta un comentario y a que principalmente se utilice como idioma el ingles o el idioma de la región donde se va a desplegar el código.</t>
   </si>
   <si>
@@ -1201,6 +1249,9 @@
     <t>Experto</t>
   </si>
   <si>
+    <t>Lógica, persistencia, interfaz, usuario, clases.</t>
+  </si>
+  <si>
     <t>El patrón experto responde a la pregunta: ¿Quién es responsable? Indica que la responsabilidad de la creación de un objeto o la implementación de un método, debe recaer sobre la clase que conoce toda la información necesaria para crear aquel objeto o desarrollar dicho método.</t>
   </si>
   <si>
@@ -1210,12 +1261,18 @@
     <t>Creador</t>
   </si>
   <si>
+    <t>Contener, agregación, almacenar, inicialización, constructor.</t>
+  </si>
+  <si>
     <t xml:space="preserve">El patrón creador responde a la pregunta: ¿Quién crea? Ayuda a identificar quién debe ser el responsable de la creación (o instanciación) de nuevos objetos o clases. </t>
   </si>
   <si>
     <t>Creador, GRASP, Qué es una responsabilidad, Asignación de responsabilidades, Conceptos y temas</t>
   </si>
   <si>
+    <t>Eventos, clases, validaciones, modelo, negocio.</t>
+  </si>
+  <si>
     <t>El patrón controlador responde a la pregunta: ¿Quién maneja los eventos de  un sistema? Es un patrón que sirve como intermediario entre una determinada interfaz y el algoritmo que la implementa, de tal forma que es la que recibe los datos del usuario y la que los envía a las distintas clases según el método llamado. Este patrón permite asignar la responsabilidad de controlar el flujo de eventos del sistema, a clases específicas. Igualmente, este patrón es el principal pat´ron GRASP utilizado en el estilo arquitectural MVC.</t>
   </si>
   <si>
@@ -1225,6 +1282,9 @@
     <t>Alta cohesión</t>
   </si>
   <si>
+    <t>Elemento, clases, metodologías, refactorización, métodos.</t>
+  </si>
+  <si>
     <t>El patrón de alta cohesión responde a la pregunta: ¿Cómo mantener una complejidad manejable? Permite que cada elemento de nuestro diseño debe realizar una labor única dentro dl sistema, no desempeñada por el resto de los elementos y que sea auto-identificable. Basicamente dice que dice que la información que almacena una clase debe ser coherente y debe estar (en la medida de lo posible) relacionada con la clase.</t>
   </si>
   <si>
@@ -1234,6 +1294,9 @@
     <t>Bajo acoplamiento</t>
   </si>
   <si>
+    <t>Dependencias, clases, software, acoplamiento, diagramas.</t>
+  </si>
+  <si>
     <t>El patrón de bajo acoplamiento responde a la pregunta: ¿Cómo soportar baja dependencia e incremento de la reutilización? Es la idea de tener las clases lo menos ligadas entre sí que se pueda. De tal forma que en caso de producirse una modificación en alguna de ellas, se tenga la mínima repercusión posible en el resto de clases, potenciando la reutilización, y disminuyendo la dependencia entre las clases.</t>
   </si>
   <si>
@@ -1243,6 +1306,9 @@
     <t>Ley de Demeter</t>
   </si>
   <si>
+    <t>Mecanismo, acoplamiento, código, estructura, clases.</t>
+  </si>
+  <si>
     <t>El patrón de ley de Demeter responde a la pregunta: ¿Cómo evitar tener conocimiento de la estructura de objetos indirectos? Tambien reconocido mediante la frase "no aceptes caramelos de desconocidos" la ley de Demeter básicamente es un mecanismo y patrón de asignación de responsabilidades de detección de acoplamiento que viene a decir que un objeto no debería conocer las entrañas de otros objetos con los que interactúa.</t>
   </si>
   <si>
@@ -1252,6 +1318,9 @@
     <t>Indirección</t>
   </si>
   <si>
+    <t>Desacoplar, servicio, sistemas, utilidad, usuarios.</t>
+  </si>
+  <si>
     <t>El patrón de indirección responde a la pregunta: ¿Cómo evitar el acoplamiento directo? Aporta bajar el acoplamiento entre dos clases asignando la responsabilidad de la mediación entre ellos a un tercer elemento (clase) intermedio. En general busca crear clases intermedias para desacoplar clientes de servicio y servicios.</t>
   </si>
   <si>
@@ -1261,6 +1330,9 @@
     <t>Variaciones protegidas</t>
   </si>
   <si>
+    <t>metodología ágil, variaciones, modificaciones, implementaciones, sistema.</t>
+  </si>
+  <si>
     <t>El patrón de variaciones protegidas busca el principio fundamental de protegerse del cambio, de tal forma que todo lo que se prevea en un análisis previo que es susceptible de modificaciones, se envuelva en una interfaz, utilizando el polimorfismo para crear varias implementaciones y posibilitar implementaciones futuras, de manera que quede lo menos ligado posible al sistema, de forma que cuando se produzca la variación, repercuta lo mínimo.</t>
   </si>
   <si>
@@ -1270,6 +1342,9 @@
     <t>Fabricación pura</t>
   </si>
   <si>
+    <t>Problemas, objetos, proyecto, log, multilenguaje.</t>
+  </si>
+  <si>
     <t>El patrón de fabricación pura responde a la pregunta: ¿Cómo en ocasiones se puede no violar la alta cohesión y bajo acoplamiento? La fabricación pura se da en las clases que no representan un ente u objeto real del dominio del problema, sino que se ha creado intencionadamente para disminuir el acoplamiento, aumentar la cohesión y/o potenciar la reutilización del código. En general se utiliza cuando los problemas se complican, porque se busca construir clases que se encarguen de construir los objetos adecuados en cada momento (factorías).</t>
   </si>
   <si>
@@ -1279,6 +1354,9 @@
     <t>Aproximación UEB al MVC</t>
   </si>
   <si>
+    <t>Interfaz, procedimiento, solución, implementación, sistema.</t>
+  </si>
+  <si>
     <t>Se explica la aproximación particular que se utiliza en la Universidad El Bosque para la implementación del estilo arquitectural MVC.</t>
   </si>
   <si>
@@ -1288,6 +1366,9 @@
     <t>Archivos de texto plano</t>
   </si>
   <si>
+    <t>Formato, carácteres, etiquetas, procesadas, archivos de configuración.</t>
+  </si>
+  <si>
     <t>Se explica el procedimiento y los factores a considerar para la implementación de la persistencia por medio de archivos de texto plano. Se hace especial enfasis en la gestión de archivos de texto plano, al igual que en su lectura y escritura.</t>
   </si>
   <si>
@@ -1297,6 +1378,9 @@
     <t>Archivos de propiedades</t>
   </si>
   <si>
+    <t>Objeto, valores, variables, almacenamiento, emparejados.</t>
+  </si>
+  <si>
     <t>Se explica el procedimiento y los factores a considerar para la implementación de la persistencia por medio de archivos de propiedades facilitados por la clase Properties de Java. Esta clase permite manipular archivos que almacenen de manera permanente una serie de valores emparejados cada uno de ellos a un nombre, de manera similar a los nombre de variables que almacenan valores en memoria.</t>
   </si>
   <si>
@@ -1306,6 +1390,9 @@
     <t>Serialización</t>
   </si>
   <si>
+    <t>Convertir, objeto, secuencia, almacenar, transmitir.</t>
+  </si>
+  <si>
     <t>Se explica la serialización como el proceso de convertir un objeto en una secuencia de bytes para almacenarlo o transmitirlo a la memoria, a una base de datos o a un archivo. Su propósito principal es guardar el estado de un objeto para poder volver a crearlo cuando sea necesario.</t>
   </si>
   <si>
@@ -1315,6 +1402,9 @@
     <t>Deserialización</t>
   </si>
   <si>
+    <t>Reconstrucción, heredados, clase, inicializados, constructor.</t>
+  </si>
+  <si>
     <t>Se explica la deserialización como el proceso opuesto a la serialización en donde se reconstruye el objeto a partir de la información, donde su objetivo es transformar los datos serializados provenientes de un archivo, secuencia o socket de red en un objeto.</t>
   </si>
   <si>
@@ -1324,6 +1414,9 @@
     <t>Pruebas de software</t>
   </si>
   <si>
+    <t>Producto, calidad, funcionalidad, software, errores.</t>
+  </si>
+  <si>
     <t>Se define y explica el concepto de pruebas de software, al igual que se introduce este por medio del estudio de casos o ejemplos. Se definen pruebas de software como el proceso de evaluación, validación y verificación de un producto o aplicación de software para saber si hace lo que se supone que debe hacer y que lo hace como estaba planteado y/o pactado. Los beneficios de las pruebas incluyen la prevención de errores, la reducción de los costos de desarrollo y la mejora del rendimiento.</t>
   </si>
   <si>
@@ -1333,6 +1426,9 @@
     <t>Debug</t>
   </si>
   <si>
+    <t>Proceso, eliminar errores, software, hardware, desarrollo.</t>
+  </si>
+  <si>
     <t>Siendo la traducción literal de depurar o depuración. Se define al debug como el proceso de buscar errores o bugs en el código, la lógica o la implementación tecnológica de un programa, de tal forma que se puedan corregir y así evitar posteriores fallos de funcionamiento. El proceso de debug igualmente permite mejorar el rendimiento de un producto de software.</t>
   </si>
   <si>
@@ -1342,6 +1438,9 @@
     <t>Unitarias</t>
   </si>
   <si>
+    <t>Funcionamiento, comprobar, prueba, código, procedimiento.</t>
+  </si>
+  <si>
     <t>Se definen las pruebas unitarias como aquellas pruebas que consisten en aislar una parte del código y comprobar que funciona a la perfección. Son pequeños tests que validan el comportamiento de un objeto y la lógica.</t>
   </si>
   <si>
@@ -1351,6 +1450,9 @@
     <t>Invariantes</t>
   </si>
   <si>
+    <t>Estados, situaciones, código, ciclo, iteración.</t>
+  </si>
+  <si>
     <t>Se definen las pruebas invariantes (o pruebas de invariantes) como la utilización de invariantes para verificar el correcto funcionamiento de una función y/o algoritmo. Un invariantes es un valor o condición que se espera que sea consistente durante la ejecución de un proceso. Las invariantes son útiles para probar los resultados de algoritmos y la integridad de los programas de computadora.</t>
   </si>
   <si>
@@ -1360,6 +1462,9 @@
     <t>Cómo hacer un debug</t>
   </si>
   <si>
+    <t>Analizar, herramienta, detectar, línea de código, testear.</t>
+  </si>
+  <si>
     <t>Se explica el proceso, y se enlistan las consideraciones a tener en cuenta para poder desarrollar de forma satisfactoria un debug en un programa informático. Igualmente se presenta la forma de realizar un debug para un programa desarrollado en Java a través del entorno integrado de desarrollo Eclipse.</t>
   </si>
   <si>
@@ -1369,6 +1474,9 @@
     <t>Abstracción</t>
   </si>
   <si>
+    <t>Aislar, intrinseca, ocultación, complejidad, elementos.</t>
+  </si>
+  <si>
     <t>Se define el concepto de abstracción como la acción que consiste en aislar un elemento de su contexto o del resto de los elementos que lo acompañan. Especificamente poder aislar o separar aquellas características especificas de un objeto, aquellas que lo distinguen de los demás tipos de objetos y que logran definir límites conceptuales respecto a quien está haciendo dicha abstracción del objeto.</t>
   </si>
   <si>
@@ -1414,6 +1522,9 @@
     <t>Métodos abstractos</t>
   </si>
   <si>
+    <t>Interface, relación, herencia, clases, métodos.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Se explica que los métodos abstractos son aquellos métodos que son declarados pero no implementados, es decir, los métodos para los cuales solo se escribe su nombre, parámetros y tipo devuelto pero no su código. </t>
   </si>
   <si>
@@ -1423,6 +1534,9 @@
     <t>Interface</t>
   </si>
   <si>
+    <t>Métodos abstractos, constantes, funcionalidad, visibilidad, interfaz.</t>
+  </si>
+  <si>
     <t>Se definen las interfaces como aquellas clases que son sintácticamente similares a una clase abstracta, en la que puede especificar uno o más métodos que no tienen cuerpo, donde esos métodos deben ser implementados por una clase para que se definan sus acciones. Por lo anterior, una interfaz especifica qué se debe hacer, pero no cómo hacerlo.</t>
   </si>
   <si>
@@ -1432,6 +1546,9 @@
     <t>Clase abstracta</t>
   </si>
   <si>
+    <t>Instanciar, funcionalidad, implementación, parámetros, métodos.</t>
+  </si>
+  <si>
     <t>Se definen las clases abstractas como aquellas que por sí mismas no se pueden identificar con algo concreto, es decir, son algo abstracto, no representan algo específico y se pueden usar para crear otras clases, mas no pueden ser instanciadas. A diferencia de las interfaces si pueden contener métodos no abtractos (es decir con cuerpo), pero deben contener al menos un método abstracto.</t>
   </si>
   <si>
@@ -1441,6 +1558,9 @@
     <t>Representación de la herencia en diagramas</t>
   </si>
   <si>
+    <t>Expresar, simplificar, clarificar, entidad, generalización.</t>
+  </si>
+  <si>
     <t>Se explica la forma visual (la figura) utilizada para la representación de la herencia en los diagramas de clases. Lo anterior es una continuación lógica tanto del tema de la herencia, como de la profundización en los diagramas UML.</t>
   </si>
   <si>
@@ -1450,6 +1570,9 @@
     <t xml:space="preserve">Algoritmos </t>
   </si>
   <si>
+    <t>Instrucciones, secuencias, programas, avances, lenguaje.</t>
+  </si>
+  <si>
     <t>Se explica en que consiste un algoritmo tanto de manera conceptual como de forma práctica, se establece la diferencia entre algoritmo y función, y se presentan los primeros algoritmo genéricos o comunmente utilizados en la programación.</t>
   </si>
   <si>
@@ -1459,6 +1582,9 @@
     <t>Ordenación</t>
   </si>
   <si>
+    <t>Ordenar, información, datos, procedimientos, complejos.</t>
+  </si>
+  <si>
     <t>Se explican los algoritmos de ordenación como aquellos cuya función es ordenar un conjunto de elementos (normalmente de una lista o un vectos) en función de una relación de orden.</t>
   </si>
   <si>
@@ -1468,6 +1594,9 @@
     <t>Búsqueda</t>
   </si>
   <si>
+    <t>Proceso, recorrer, arreglo, elemento, comparar.</t>
+  </si>
+  <si>
     <t>Se explican los algoritmos de busqueda como aquellos cuya función es buscar un elemento en específico dentro de un conjunto de elementos dados (normalmente una lista o un vector), determinando el elemento correcto en función de un o varias condiciones dadas. En caso de que haya mas de un elemento que cumpla con las condiciones, el algoritmo debería de retornar el primer elemento que cumpla.</t>
   </si>
   <si>
@@ -1477,6 +1606,9 @@
     <t>Selección</t>
   </si>
   <si>
+    <t>Elementos, vector, intercambiar, posición, algoritmo.</t>
+  </si>
+  <si>
     <t>Se explica o introduce el primer algoritmo de ordenación, enfocado a la ordenación de un conjunto de números, siendo este la ordenación por selección.</t>
   </si>
   <si>
@@ -1486,6 +1618,9 @@
     <t>Burbuja</t>
   </si>
   <si>
+    <t>Intercambio, ordenar, comparar, implementar, elementos.</t>
+  </si>
+  <si>
     <t>Se explica o introduce el algoritmo de ordenación mas simple (en cuanto a complejidad) de los existentes, enfocado a la ordenación de un conjunto de números, siendo este la ordenación por burbuja.</t>
   </si>
   <si>
@@ -1495,6 +1630,9 @@
     <t>Inserción</t>
   </si>
   <si>
+    <t>Ordenar, funcionalidad, recorrido, iteración, comparar.</t>
+  </si>
+  <si>
     <t>Se explica o introduce el segundo algoritmo de ordenación, enfocado a la ordenación de un conjunto de números, siendo este la ordenación por inserción.</t>
   </si>
   <si>
@@ -1504,6 +1642,9 @@
     <t>Búsqueda lineal</t>
   </si>
   <si>
+    <t>Diseñar, comparar, listar, retornar, posición.</t>
+  </si>
+  <si>
     <t>Se explica o introduce el primer algoritmo de búsqueda, el cual sigue el principio natural de revisar, en el orden en que se encuentren, uno a uno cada elemento hasta hallar el primero que satisfaga la o las condiciones dadas.</t>
   </si>
   <si>
@@ -1513,32 +1654,32 @@
     <t>Búsqueda binaria</t>
   </si>
   <si>
+    <t>Elemento, dividir, arreglo, procesamiento, información.</t>
+  </si>
+  <si>
     <t>Se explica o introduce el segundo algoritmo de búsqueda, siendo este el algoritmo de búsqueda binaria.</t>
   </si>
   <si>
     <t>Búsqueda binaria, Búsqueda, Algoritmos, Conceptos y temas</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="3">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -1548,7 +1689,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1558,46 +1699,35 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1787,35 +1917,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="57.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" customWidth="1"/>
-    <col min="5" max="5" width="45.109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="195.88671875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="50.5"/>
+    <col customWidth="1" min="3" max="3" width="14.0"/>
+    <col customWidth="1" min="4" max="4" width="23.13"/>
+    <col customWidth="1" min="5" max="5" width="39.5"/>
+    <col customWidth="1" min="6" max="6" width="171.38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1828,14 +1955,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1848,14 +1975,14 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1868,14 +1995,14 @@
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1888,2659 +2015,2654 @@
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15.0" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>495</v>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" t="s">
-        <v>495</v>
+        <v>73</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" t="s">
-        <v>495</v>
+        <v>93</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" t="s">
-        <v>495</v>
+        <v>97</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" t="s">
-        <v>495</v>
+        <v>101</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" t="s">
-        <v>495</v>
+        <v>105</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B30" t="s">
-        <v>495</v>
+        <v>121</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" t="s">
-        <v>495</v>
+        <v>125</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E31" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B32" t="s">
-        <v>495</v>
+        <v>129</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E32" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E33" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E36" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E37" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B38" t="s">
-        <v>495</v>
+        <v>153</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E38" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E39" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E40" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E41" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="1" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E42" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="1" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E43" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="1" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E44" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="1" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E45" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="1" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E46" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="1" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E47" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="1" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E48" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="1" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E49" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="1" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E50" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E51" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E52" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B53" t="s">
-        <v>495</v>
+        <v>213</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E53" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="1" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E54" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="1" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E55" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="1" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E56" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="1" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E57" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="1" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E58" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="A59" s="1" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E59" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B60" t="s">
-        <v>495</v>
+        <v>241</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E60" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="A61" s="1" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E61" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62" s="1" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E62" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63" s="1" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E63" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="A64" s="1" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E64" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E65" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>256</v>
+        <v>267</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="A67" s="1" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>256</v>
+        <v>272</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68" s="1" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>256</v>
+        <v>276</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69" s="1" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D69" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>256</v>
-      </c>
       <c r="F69" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="A70" s="1" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>256</v>
+        <v>284</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71" s="1" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>256</v>
+        <v>288</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72" s="1" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>256</v>
+        <v>292</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="A73" s="1" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>256</v>
+        <v>296</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="A74" s="1" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>256</v>
+        <v>300</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="A75" s="1" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E75" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="A76" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B76" t="s">
-        <v>495</v>
+        <v>306</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E76" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="A77" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B77" t="s">
-        <v>495</v>
+        <v>310</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E77" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="A78" s="1" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E78" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="A79" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B79" t="s">
-        <v>495</v>
+        <v>318</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E79" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="A80" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B80" t="s">
-        <v>495</v>
+        <v>322</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>256</v>
+        <v>324</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="A81" s="1" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E81" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="A82" s="1" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>256</v>
+        <v>332</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="A83" s="1" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>256</v>
+        <v>336</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="A84" s="1" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>256</v>
+        <v>340</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="A85" s="1" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>256</v>
+        <v>344</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="A86" s="1" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>256</v>
+        <v>348</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="A87" s="1" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>256</v>
+        <v>352</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="A88" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B88" t="s">
-        <v>495</v>
+        <v>354</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E88" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="A89" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B89" t="s">
-        <v>495</v>
+        <v>358</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>359</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E89" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="A90" s="1" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>347</v>
+        <v>364</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="A91" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B91" t="s">
-        <v>495</v>
+        <v>367</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>368</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>347</v>
+        <v>369</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="A92" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>347</v>
+        <v>373</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="A93" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B93" t="s">
-        <v>495</v>
+        <v>375</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>376</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>347</v>
+        <v>377</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="A94" s="1" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>347</v>
+        <v>381</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="A95" s="1" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D95" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="E95" s="4" t="s">
-        <v>347</v>
-      </c>
       <c r="F95" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="A96" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B96" t="s">
-        <v>495</v>
+        <v>387</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>388</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>347</v>
+        <v>389</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="A97" s="1" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>347</v>
+        <v>393</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="A98" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B98" t="s">
-        <v>495</v>
+        <v>395</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>347</v>
+        <v>397</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="99">
       <c r="A99" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B99" t="s">
-        <v>495</v>
+        <v>399</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>347</v>
+        <v>401</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="100">
       <c r="A100" s="1" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>347</v>
+        <v>405</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="101">
       <c r="A101" s="1" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>347</v>
+        <v>409</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="102">
       <c r="A102" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B102" t="s">
+        <v>411</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B103" t="s">
-        <v>495</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B104" t="s">
-        <v>495</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B105" t="s">
-        <v>495</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B106" t="s">
-        <v>495</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B107" t="s">
-        <v>495</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B108" t="s">
-        <v>495</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B109" t="s">
-        <v>495</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B110" t="s">
-        <v>495</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B111" t="s">
-        <v>495</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B112" t="s">
-        <v>495</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B113" t="s">
-        <v>495</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B114" t="s">
-        <v>495</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B115" t="s">
-        <v>495</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B116" t="s">
-        <v>495</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B117" t="s">
-        <v>495</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B118" t="s">
-        <v>495</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B119" t="s">
-        <v>495</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B120" t="s">
-        <v>495</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B121" t="s">
-        <v>495</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>452</v>
-      </c>
       <c r="C123" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>347</v>
+        <v>496</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="124">
       <c r="A124" s="1" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>347</v>
+        <v>500</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="125">
       <c r="A125" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B125" t="s">
-        <v>495</v>
+        <v>502</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>503</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>347</v>
+        <v>504</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="126">
       <c r="A126" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B126" t="s">
-        <v>495</v>
+        <v>506</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>347</v>
+        <v>508</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="127">
       <c r="A127" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B127" t="s">
-        <v>495</v>
+        <v>510</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>511</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>347</v>
+        <v>512</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="128">
       <c r="A128" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B128" t="s">
-        <v>495</v>
+        <v>514</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>515</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>347</v>
+        <v>516</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="129">
       <c r="A129" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B129" t="s">
-        <v>495</v>
+        <v>518</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>519</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>347</v>
+        <v>520</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="130">
       <c r="A130" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B130" t="s">
-        <v>495</v>
+        <v>522</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>523</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>347</v>
+        <v>524</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="131">
       <c r="A131" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B131" t="s">
-        <v>495</v>
+        <v>526</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>527</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>347</v>
+        <v>528</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="132">
       <c r="A132" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="B132" t="s">
-        <v>495</v>
+        <v>530</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>531</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>347</v>
+        <v>532</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="133">
       <c r="A133" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B133" t="s">
-        <v>495</v>
+        <v>534</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>535</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>347</v>
+        <v>536</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="134">
       <c r="A134" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B134" t="s">
-        <v>495</v>
+        <v>538</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>539</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>347</v>
+        <v>540</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="135">
       <c r="A135" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="B135" t="s">
-        <v>495</v>
+        <v>542</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>543</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>347</v>
+        <v>544</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="136">
       <c r="A136" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B136" t="s">
-        <v>495</v>
+        <v>546</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>547</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>347</v>
+        <v>548</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="5"/>
+        <v>549</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>